--- a/test/test06.xlsx
+++ b/test/test06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20900" yWindow="2500" windowWidth="30440" windowHeight="16800" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4020" yWindow="4140" windowWidth="30440" windowHeight="16800" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Movies" sheetId="1" r:id="rId1"/>
@@ -2316,12 +2316,6 @@
     <t>rs_detectives_s1</t>
   </si>
   <si>
-    <t>TVPG</t>
-  </si>
-  <si>
-    <t>TV-14</t>
-  </si>
-  <si>
     <t>Rockstar Films</t>
   </si>
   <si>
@@ -2371,12 +2365,6 @@
   </si>
   <si>
     <t>rs_detectives_s1</t>
-  </si>
-  <si>
-    <t>TVPG</t>
-  </si>
-  <si>
-    <t>TV-14</t>
   </si>
   <si>
     <t>Rockstar Films</t>
@@ -4200,6 +4188,18 @@
   </si>
   <si>
     <t>Mongo productions</t>
+  </si>
+  <si>
+    <t>Season 3</t>
+  </si>
+  <si>
+    <t>Sopranos Season 3</t>
+  </si>
+  <si>
+    <t>new artwork for storefront</t>
+  </si>
+  <si>
+    <t>10% discount if ordered more than one</t>
   </si>
 </sst>
 </file>
@@ -5387,7 +5387,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5649,6 +5649,27 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="353">
@@ -6008,6 +6029,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF666666"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6436,7 +6462,7 @@
   <sheetData>
     <row r="1" spans="1:52" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6445,7 +6471,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -6493,19 +6519,19 @@
         <v>12</v>
       </c>
       <c r="T1" s="44" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="U1" s="44" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="V1" s="44" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="W1" s="37" t="s">
+        <v>1240</v>
+      </c>
+      <c r="X1" s="44" t="s">
         <v>1244</v>
-      </c>
-      <c r="X1" s="44" t="s">
-        <v>1248</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>13</v>
@@ -6526,7 +6552,7 @@
         <v>17</v>
       </c>
       <c r="AE1" s="37" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="AF1" s="4" t="s">
         <v>18</v>
@@ -6556,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="AO1" s="74" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="AP1" s="3" t="s">
         <v>20</v>
@@ -6677,7 +6703,7 @@
         <v>53</v>
       </c>
       <c r="AH2" s="39" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="AI2" s="8" t="s">
         <v>54</v>
@@ -6704,10 +6730,10 @@
         <v>61</v>
       </c>
       <c r="AQ2" s="45" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="AR2" s="45" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="AS2" s="7"/>
       <c r="AT2" s="7"/>
@@ -6723,7 +6749,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>63</v>
@@ -6741,7 +6767,7 @@
         <v>67</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="I3" s="49" t="s">
         <v>68</v>
@@ -6792,7 +6818,7 @@
         <v>83</v>
       </c>
       <c r="Y3" s="48" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="Z3" s="52" t="s">
         <v>84</v>
@@ -6819,7 +6845,7 @@
         <v>91</v>
       </c>
       <c r="AH3" s="53" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="AI3" s="49" t="s">
         <v>92</v>
@@ -6831,7 +6857,7 @@
         <v>94</v>
       </c>
       <c r="AL3" s="47" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="AM3" s="48" t="s">
         <v>95</v>
@@ -6846,10 +6872,10 @@
         <v>98</v>
       </c>
       <c r="AQ3" s="48" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="AR3" s="48" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="AS3" s="82"/>
       <c r="AT3" s="82"/>
@@ -6883,7 +6909,7 @@
         <v>105</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>106</v>
@@ -6925,7 +6951,7 @@
         <v>724</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="W4" s="11" t="s">
         <v>118</v>
@@ -6961,7 +6987,7 @@
         <v>128</v>
       </c>
       <c r="AH4" s="41" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="AI4" s="11" t="s">
         <v>129</v>
@@ -6988,10 +7014,10 @@
         <v>136</v>
       </c>
       <c r="AQ4" s="46" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="AR4" s="46" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="AS4" s="82"/>
       <c r="AT4" s="82"/>
@@ -7004,7 +7030,7 @@
     </row>
     <row r="5" spans="1:52" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="34" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>138</v>
@@ -7013,7 +7039,7 @@
         <v>139</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>141</v>
@@ -7048,16 +7074,16 @@
       <c r="Q5" s="21"/>
       <c r="R5" s="16"/>
       <c r="S5" s="70" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="T5" s="21" t="s">
         <v>148</v>
       </c>
       <c r="U5" s="58" t="s">
+        <v>1285</v>
+      </c>
+      <c r="V5" s="61" t="s">
         <v>1289</v>
-      </c>
-      <c r="V5" s="61" t="s">
-        <v>1293</v>
       </c>
       <c r="W5" s="18" t="s">
         <v>149</v>
@@ -7094,12 +7120,12 @@
         <v>4</v>
       </c>
       <c r="AM5" s="73" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="AN5" s="72"/>
       <c r="AO5" s="78"/>
       <c r="AP5" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ5" s="55" t="s">
         <v>445</v>
@@ -7125,7 +7151,7 @@
         <v>155</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>156</v>
@@ -7137,7 +7163,7 @@
         <v>158</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>159</v>
@@ -7166,10 +7192,10 @@
         <v>163</v>
       </c>
       <c r="U6" s="61" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="V6" s="61" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="W6" s="18" t="s">
         <v>164</v>
@@ -7207,7 +7233,7 @@
       </c>
       <c r="AM6" s="72"/>
       <c r="AN6" s="73" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="AO6" s="78"/>
       <c r="AP6" s="67"/>
@@ -7310,14 +7336,14 @@
       </c>
       <c r="AL7" s="16"/>
       <c r="AM7" s="73" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="AN7" s="72"/>
       <c r="AO7" s="78" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="AP7" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ7" s="19"/>
       <c r="AR7" s="55" t="s">
@@ -7421,7 +7447,7 @@
       <c r="AN8" s="72"/>
       <c r="AO8" s="78"/>
       <c r="AP8" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ8" s="19"/>
       <c r="AR8" s="19"/>
@@ -7529,7 +7555,7 @@
       <c r="AN9" s="72"/>
       <c r="AO9" s="78"/>
       <c r="AP9" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ9" s="19"/>
       <c r="AR9" s="19"/>
@@ -7637,7 +7663,7 @@
       <c r="AN10" s="72"/>
       <c r="AO10" s="78"/>
       <c r="AP10" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ10" s="19"/>
       <c r="AR10" s="19"/>
@@ -7743,7 +7769,7 @@
       <c r="AN11" s="72"/>
       <c r="AO11" s="78"/>
       <c r="AP11" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ11" s="19"/>
       <c r="AR11" s="19"/>
@@ -7851,7 +7877,7 @@
       <c r="AN12" s="72"/>
       <c r="AO12" s="78"/>
       <c r="AP12" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ12" s="19"/>
       <c r="AR12" s="19"/>
@@ -7963,7 +7989,7 @@
       <c r="AN13" s="72"/>
       <c r="AO13" s="78"/>
       <c r="AP13" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ13" s="19"/>
       <c r="AR13" s="19"/>
@@ -8075,7 +8101,7 @@
       <c r="AN14" s="72"/>
       <c r="AO14" s="78"/>
       <c r="AP14" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ14" s="19"/>
       <c r="AR14" s="19"/>
@@ -8099,10 +8125,10 @@
         <v>309</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>310</v>
@@ -8185,7 +8211,7 @@
       <c r="AN15" s="72"/>
       <c r="AO15" s="78"/>
       <c r="AP15" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ15" s="19"/>
       <c r="AR15" s="19"/>
@@ -8209,7 +8235,7 @@
         <v>325</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>326</v>
@@ -8295,7 +8321,7 @@
       <c r="AN16" s="72"/>
       <c r="AO16" s="78"/>
       <c r="AP16" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ16" s="19"/>
       <c r="AR16" s="19"/>
@@ -8331,7 +8357,7 @@
         <v>346</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>347</v>
@@ -8403,7 +8429,7 @@
       <c r="AN17" s="72"/>
       <c r="AO17" s="78"/>
       <c r="AP17" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ17" s="19"/>
       <c r="AR17" s="19"/>
@@ -8439,7 +8465,7 @@
         <v>363</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>364</v>
@@ -8511,7 +8537,7 @@
       <c r="AN18" s="72"/>
       <c r="AO18" s="78"/>
       <c r="AP18" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ18" s="19"/>
       <c r="AR18" s="19"/>
@@ -8547,7 +8573,7 @@
         <v>380</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>381</v>
@@ -8619,7 +8645,7 @@
       <c r="AN19" s="72"/>
       <c r="AO19" s="78"/>
       <c r="AP19" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ19" s="19"/>
       <c r="AR19" s="19"/>
@@ -8655,7 +8681,7 @@
         <v>398</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>399</v>
@@ -8727,7 +8753,7 @@
       <c r="AN20" s="72"/>
       <c r="AO20" s="78"/>
       <c r="AP20" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ20" s="19"/>
       <c r="AR20" s="19"/>
@@ -8763,7 +8789,7 @@
         <v>416</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>417</v>
@@ -8839,7 +8865,7 @@
       <c r="AN21" s="72"/>
       <c r="AO21" s="78"/>
       <c r="AP21" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ21" s="19"/>
       <c r="AR21" s="19"/>
@@ -8875,7 +8901,7 @@
         <v>433</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>434</v>
@@ -8951,7 +8977,7 @@
       <c r="AN22" s="72"/>
       <c r="AO22" s="78"/>
       <c r="AP22" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ22" s="19"/>
       <c r="AR22" s="19"/>
@@ -8987,7 +9013,7 @@
         <v>450</v>
       </c>
       <c r="H23" s="55" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>451</v>
@@ -9018,7 +9044,7 @@
         <v>456</v>
       </c>
       <c r="U23" s="58" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="V23" s="26"/>
       <c r="W23" s="16"/>
@@ -9053,7 +9079,7 @@
       <c r="AN23" s="72"/>
       <c r="AO23" s="78"/>
       <c r="AP23" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ23" s="19"/>
       <c r="AR23" s="19"/>
@@ -9089,7 +9115,7 @@
         <v>465</v>
       </c>
       <c r="H24" s="55" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>466</v>
@@ -9120,7 +9146,7 @@
         <v>471</v>
       </c>
       <c r="U24" s="58" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="V24" s="26"/>
       <c r="W24" s="16"/>
@@ -9155,7 +9181,7 @@
       <c r="AN24" s="72"/>
       <c r="AO24" s="78"/>
       <c r="AP24" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ24" s="19"/>
       <c r="AR24" s="19"/>
@@ -9191,7 +9217,7 @@
         <v>480</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="I25" s="15" t="s">
         <v>481</v>
@@ -9222,7 +9248,7 @@
         <v>486</v>
       </c>
       <c r="U25" s="58" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="V25" s="26"/>
       <c r="W25" s="30"/>
@@ -9261,7 +9287,7 @@
       <c r="AN25" s="72"/>
       <c r="AO25" s="78"/>
       <c r="AP25" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ25" s="19"/>
       <c r="AR25" s="19"/>
@@ -9297,7 +9323,7 @@
         <v>495</v>
       </c>
       <c r="H26" s="55" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="I26" s="15" t="s">
         <v>496</v>
@@ -9328,7 +9354,7 @@
         <v>501</v>
       </c>
       <c r="U26" s="58" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="V26" s="26"/>
       <c r="W26" s="30"/>
@@ -9367,7 +9393,7 @@
       <c r="AN26" s="72"/>
       <c r="AO26" s="78"/>
       <c r="AP26" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ26" s="19"/>
       <c r="AR26" s="19"/>
@@ -9403,7 +9429,7 @@
         <v>510</v>
       </c>
       <c r="H27" s="55" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>511</v>
@@ -9434,7 +9460,7 @@
         <v>516</v>
       </c>
       <c r="U27" s="58" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="V27" s="26"/>
       <c r="W27" s="16"/>
@@ -9469,7 +9495,7 @@
       <c r="AN27" s="72"/>
       <c r="AO27" s="78"/>
       <c r="AP27" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ27" s="19"/>
       <c r="AR27" s="19"/>
@@ -9505,7 +9531,7 @@
         <v>525</v>
       </c>
       <c r="H28" s="55" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="I28" s="15" t="s">
         <v>526</v>
@@ -9536,7 +9562,7 @@
         <v>531</v>
       </c>
       <c r="U28" s="58" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="V28" s="26"/>
       <c r="W28" s="16"/>
@@ -9571,7 +9597,7 @@
       <c r="AN28" s="72"/>
       <c r="AO28" s="78"/>
       <c r="AP28" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ28" s="19"/>
       <c r="AR28" s="19"/>
@@ -9607,7 +9633,7 @@
         <v>540</v>
       </c>
       <c r="H29" s="55" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="I29" s="15" t="s">
         <v>541</v>
@@ -9638,7 +9664,7 @@
         <v>546</v>
       </c>
       <c r="U29" s="58" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="V29" s="26"/>
       <c r="W29" s="30"/>
@@ -9677,7 +9703,7 @@
       <c r="AN29" s="72"/>
       <c r="AO29" s="78"/>
       <c r="AP29" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ29" s="19"/>
       <c r="AR29" s="19"/>
@@ -9704,7 +9730,7 @@
         <v>552</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>553</v>
@@ -9713,7 +9739,7 @@
         <v>554</v>
       </c>
       <c r="H30" s="55" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>555</v>
@@ -9744,7 +9770,7 @@
         <v>560</v>
       </c>
       <c r="U30" s="58" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="V30" s="26"/>
       <c r="W30" s="30"/>
@@ -9785,7 +9811,7 @@
       <c r="AN30" s="72"/>
       <c r="AO30" s="78"/>
       <c r="AP30" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ30" s="19"/>
       <c r="AR30" s="19"/>
@@ -9803,25 +9829,25 @@
         <v>137</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>140</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="G31" s="56" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="H31" s="55" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="I31" s="34" t="s">
         <v>144</v>
@@ -9847,16 +9873,16 @@
       <c r="R31" s="16"/>
       <c r="S31" s="71"/>
       <c r="T31" s="58" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="U31" s="58" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="V31" s="26"/>
       <c r="W31" s="30"/>
       <c r="X31" s="16"/>
       <c r="Y31" s="57" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="Z31" s="25"/>
       <c r="AA31" s="18"/>
@@ -9870,7 +9896,7 @@
         <v>28831</v>
       </c>
       <c r="AE31" s="64" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="AF31" s="25"/>
       <c r="AG31" s="25"/>
@@ -9885,7 +9911,7 @@
       <c r="AN31" s="72"/>
       <c r="AO31" s="78"/>
       <c r="AP31" s="67" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AQ31" s="19"/>
       <c r="AR31" s="19"/>
@@ -9923,9 +9949,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BC7" sqref="BC7"/>
+      <selection pane="bottomLeft" activeCell="BA3" sqref="BA3:BA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9968,7 +9994,7 @@
   <sheetData>
     <row r="1" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>563</v>
@@ -9977,7 +10003,7 @@
         <v>564</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>565</v>
@@ -10064,25 +10090,25 @@
         <v>585</v>
       </c>
       <c r="AG1" s="43" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="AH1" s="43" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="AI1" s="43" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="AJ1" s="43" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="AK1" s="43" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="AL1" s="37" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AM1" s="43" t="s">
         <v>1244</v>
-      </c>
-      <c r="AM1" s="43" t="s">
-        <v>1248</v>
       </c>
       <c r="AN1" s="4" t="s">
         <v>589</v>
@@ -10097,7 +10123,7 @@
         <v>3</v>
       </c>
       <c r="AR1" s="37" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="AS1" s="4" t="s">
         <v>592</v>
@@ -10130,7 +10156,7 @@
         <v>594</v>
       </c>
       <c r="BC1" s="74" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="BD1" s="3" t="s">
         <v>595</v>
@@ -10201,7 +10227,7 @@
         <v>631</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>611</v>
@@ -10282,7 +10308,7 @@
         <v>637</v>
       </c>
       <c r="AU2" s="39" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="AV2" s="8" t="s">
         <v>638</v>
@@ -10312,10 +10338,10 @@
         <v>646</v>
       </c>
       <c r="BE2" s="45" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="BF2" s="45" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="3" spans="1:58" ht="61" customHeight="1" x14ac:dyDescent="0.15">
@@ -10323,7 +10349,7 @@
         <v>647</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="C3" s="49" t="s">
         <v>648</v>
@@ -10347,7 +10373,7 @@
         <v>654</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="K3" s="50" t="s">
         <v>655</v>
@@ -10377,7 +10403,7 @@
         <v>681</v>
       </c>
       <c r="T3" s="47" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="U3" s="47" t="s">
         <v>661</v>
@@ -10458,7 +10484,7 @@
         <v>687</v>
       </c>
       <c r="AU3" s="53" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="AV3" s="49" t="s">
         <v>688</v>
@@ -10473,9 +10499,9 @@
         <v>691</v>
       </c>
       <c r="AZ3" s="47" t="s">
-        <v>1268</v>
-      </c>
-      <c r="BA3" s="49" t="s">
+        <v>1264</v>
+      </c>
+      <c r="BA3" s="94" t="s">
         <v>692</v>
       </c>
       <c r="BB3" s="49" t="s">
@@ -10488,10 +10514,10 @@
         <v>695</v>
       </c>
       <c r="BE3" s="48" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="BF3" s="48" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="4" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10523,7 +10549,7 @@
         <v>704</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>705</v>
@@ -10553,13 +10579,13 @@
         <v>731</v>
       </c>
       <c r="T4" s="35" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>711</v>
       </c>
       <c r="V4" s="35" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="W4" s="11" t="s">
         <v>712</v>
@@ -10588,7 +10614,7 @@
       <c r="AE4" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AF4" s="91" t="s">
         <v>721</v>
       </c>
       <c r="AG4" s="12" t="s">
@@ -10622,7 +10648,7 @@
         <v>734</v>
       </c>
       <c r="AQ4" s="42" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="AR4" s="13" t="s">
         <v>735</v>
@@ -10634,7 +10660,7 @@
         <v>737</v>
       </c>
       <c r="AU4" s="41" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="AV4" s="11" t="s">
         <v>738</v>
@@ -10651,7 +10677,7 @@
       <c r="AZ4" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="BA4" s="11" t="s">
+      <c r="BA4" s="91" t="s">
         <v>742</v>
       </c>
       <c r="BB4" s="11" t="s">
@@ -10664,10 +10690,10 @@
         <v>744</v>
       </c>
       <c r="BE4" s="46" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="BF4" s="46" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10699,8 +10725,12 @@
       <c r="J5" s="19"/>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
+      <c r="M5" s="59" t="s">
+        <v>1315</v>
+      </c>
+      <c r="N5" s="59" t="s">
+        <v>1316</v>
+      </c>
       <c r="O5" s="18">
         <v>8</v>
       </c>
@@ -10742,7 +10772,7 @@
         <v>757</v>
       </c>
       <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
+      <c r="AF5" s="92"/>
       <c r="AG5" s="21" t="s">
         <v>758</v>
       </c>
@@ -10756,31 +10786,29 @@
         <v>760</v>
       </c>
       <c r="AM5" s="16"/>
-      <c r="AN5" s="23"/>
+      <c r="AN5" s="23">
+        <v>42381</v>
+      </c>
       <c r="AO5" s="24">
         <v>2005</v>
       </c>
-      <c r="AP5" s="23"/>
-      <c r="AQ5" s="40"/>
+      <c r="AP5" s="89"/>
+      <c r="AQ5" s="90"/>
       <c r="AR5" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="AS5" s="23" t="s">
-        <v>763</v>
-      </c>
-      <c r="AT5" s="23" t="s">
-        <v>764</v>
-      </c>
-      <c r="AU5" s="40"/>
+      <c r="AS5" s="89"/>
+      <c r="AT5" s="89"/>
+      <c r="AU5" s="90"/>
       <c r="AV5" s="16"/>
       <c r="AW5" s="16"/>
       <c r="AX5" s="16"/>
-      <c r="AY5" s="16"/>
-      <c r="AZ5" s="16"/>
-      <c r="BA5" s="16"/>
+      <c r="AY5" s="88"/>
+      <c r="AZ5" s="88"/>
+      <c r="BA5" s="92"/>
       <c r="BB5" s="16"/>
       <c r="BC5" s="78" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="BD5" s="85"/>
       <c r="BE5" s="33"/>
@@ -10788,25 +10816,25 @@
     </row>
     <row r="6" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
+        <v>763</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>765</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>766</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="E6" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="F6" s="22" t="s">
         <v>768</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="G6" s="18" t="s">
         <v>769</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>770</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>771</v>
       </c>
       <c r="H6" s="22">
         <v>1</v>
@@ -10824,76 +10852,78 @@
         <v>3</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="R6" s="22" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="S6" s="33"/>
       <c r="T6" s="18"/>
       <c r="U6" s="15" t="s">
+        <v>770</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="W6" s="17" t="s">
         <v>772</v>
-      </c>
-      <c r="V6" s="18" t="s">
-        <v>773</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>774</v>
       </c>
       <c r="X6" s="20">
         <v>41408</v>
       </c>
       <c r="Y6" s="29" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="Z6" s="16"/>
       <c r="AA6" s="17" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="AB6" s="17">
         <v>7.99</v>
       </c>
-      <c r="AC6" s="16"/>
+      <c r="AC6" s="16">
+        <v>39.950000000000003</v>
+      </c>
       <c r="AD6" s="62" t="s">
         <v>757</v>
       </c>
       <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
+      <c r="AF6" s="93" t="s">
+        <v>1317</v>
+      </c>
       <c r="AG6" s="21" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="AH6" s="26" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="AI6" s="33"/>
       <c r="AJ6" s="33"/>
       <c r="AK6" s="33"/>
       <c r="AL6" s="16" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="AM6" s="16"/>
       <c r="AN6" s="23"/>
       <c r="AO6" s="24">
         <v>2005</v>
       </c>
-      <c r="AP6" s="23"/>
-      <c r="AQ6" s="40"/>
+      <c r="AP6" s="89"/>
+      <c r="AQ6" s="90"/>
       <c r="AR6" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="AS6" s="23" t="s">
-        <v>782</v>
-      </c>
-      <c r="AT6" s="23" t="s">
-        <v>783</v>
-      </c>
-      <c r="AU6" s="40"/>
+      <c r="AS6" s="89"/>
+      <c r="AT6" s="89"/>
+      <c r="AU6" s="90"/>
       <c r="AV6" s="16"/>
       <c r="AW6" s="16"/>
       <c r="AX6" s="16"/>
-      <c r="AY6" s="16"/>
-      <c r="AZ6" s="16"/>
-      <c r="BA6" s="16"/>
+      <c r="AY6" s="88"/>
+      <c r="AZ6" s="88"/>
+      <c r="BA6" s="93" t="s">
+        <v>1318</v>
+      </c>
       <c r="BB6" s="16"/>
       <c r="BC6" s="78"/>
       <c r="BD6" s="85"/>
@@ -10902,25 +10932,25 @@
     </row>
     <row r="7" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>782</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>783</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>784</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="F7" s="22" t="s">
         <v>785</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="G7" s="18" t="s">
         <v>786</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>787</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>788</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>789</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>790</v>
       </c>
       <c r="H7" s="22">
         <v>1</v>
@@ -10930,10 +10960,10 @@
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="18" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
@@ -10944,50 +10974,50 @@
         <v>2</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="R7" s="22" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="S7" s="22" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="T7" s="59" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="V7" s="18" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="W7" s="15" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="X7" s="20">
         <v>41408</v>
       </c>
       <c r="Y7" s="29" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="Z7" s="16"/>
       <c r="AA7" s="17" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="AB7" s="17" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="AC7" s="16">
         <v>4.5599999999999996</v>
       </c>
       <c r="AD7" s="61"/>
       <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
+      <c r="AF7" s="92"/>
       <c r="AG7" s="21" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="AH7" s="26" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="AI7" s="26"/>
       <c r="AJ7" s="26"/>
@@ -11002,10 +11032,10 @@
       <c r="AQ7" s="40"/>
       <c r="AR7" s="25"/>
       <c r="AS7" s="23" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="AT7" s="23" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="AU7" s="40"/>
       <c r="AV7" s="16"/>
@@ -11017,38 +11047,38 @@
       <c r="AZ7" s="17">
         <v>4</v>
       </c>
-      <c r="BA7" s="16"/>
+      <c r="BA7" s="92"/>
       <c r="BB7" s="16"/>
       <c r="BC7" s="87" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="BD7" s="86" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="BE7" s="19"/>
       <c r="BF7" s="19"/>
     </row>
     <row r="8" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>805</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="F8" s="22" t="s">
         <v>807</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="G8" s="18" t="s">
         <v>808</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>809</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>810</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>811</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>812</v>
       </c>
       <c r="H8" s="22">
         <v>1</v>
@@ -11058,10 +11088,10 @@
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="18" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
@@ -11070,50 +11100,50 @@
       </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="22" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="R8" s="22" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="S8" s="22" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="T8" s="59" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="V8" s="18" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="X8" s="20">
         <v>41408</v>
       </c>
       <c r="Y8" s="29" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="Z8" s="16"/>
       <c r="AA8" s="17" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="AB8" s="17" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="AC8" s="16">
         <v>4.5599999999999996</v>
       </c>
       <c r="AD8" s="61"/>
       <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
+      <c r="AF8" s="92"/>
       <c r="AG8" s="21" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="AH8" s="26" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="AI8" s="26"/>
       <c r="AJ8" s="26"/>
@@ -11128,10 +11158,10 @@
       <c r="AQ8" s="40"/>
       <c r="AR8" s="25"/>
       <c r="AS8" s="23" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="AT8" s="23" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="AU8" s="40"/>
       <c r="AV8" s="16"/>
@@ -11143,36 +11173,36 @@
       <c r="AZ8" s="17">
         <v>4</v>
       </c>
-      <c r="BA8" s="16"/>
+      <c r="BA8" s="92"/>
       <c r="BB8" s="16"/>
       <c r="BC8" s="78"/>
       <c r="BD8" s="86" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="BE8" s="19"/>
       <c r="BF8" s="19"/>
     </row>
     <row r="9" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>825</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>826</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>828</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="F9" s="22" t="s">
         <v>829</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="G9" s="18" t="s">
         <v>830</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>831</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>832</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>833</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>834</v>
       </c>
       <c r="H9" s="22">
         <v>2</v>
@@ -11182,10 +11212,10 @@
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="18" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
@@ -11194,35 +11224,35 @@
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="22" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="R9" s="22" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="S9" s="22" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="T9" s="59" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="V9" s="18" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="W9" s="15" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="X9" s="20">
         <v>41408</v>
       </c>
       <c r="Y9" s="29" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="Z9" s="16"/>
       <c r="AA9" s="15" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="AB9" s="17">
         <v>2</v>
@@ -11230,24 +11260,24 @@
       <c r="AC9" s="16"/>
       <c r="AD9" s="61"/>
       <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
+      <c r="AF9" s="92"/>
       <c r="AG9" s="21" t="s">
+        <v>838</v>
+      </c>
+      <c r="AH9" s="26" t="s">
+        <v>839</v>
+      </c>
+      <c r="AI9" s="26" t="s">
+        <v>840</v>
+      </c>
+      <c r="AJ9" s="21" t="s">
+        <v>841</v>
+      </c>
+      <c r="AK9" s="21" t="s">
         <v>842</v>
       </c>
-      <c r="AH9" s="26" t="s">
+      <c r="AL9" s="16" t="s">
         <v>843</v>
-      </c>
-      <c r="AI9" s="26" t="s">
-        <v>844</v>
-      </c>
-      <c r="AJ9" s="21" t="s">
-        <v>845</v>
-      </c>
-      <c r="AK9" s="21" t="s">
-        <v>846</v>
-      </c>
-      <c r="AL9" s="16" t="s">
-        <v>847</v>
       </c>
       <c r="AM9" s="16"/>
       <c r="AN9" s="23"/>
@@ -11262,49 +11292,49 @@
       </c>
       <c r="AR9" s="25"/>
       <c r="AS9" s="23" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="AT9" s="23" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="AU9" s="40"/>
       <c r="AV9" s="16"/>
       <c r="AW9" s="16"/>
       <c r="AX9" s="16"/>
       <c r="AY9" s="15" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="AZ9" s="16"/>
-      <c r="BA9" s="16"/>
+      <c r="BA9" s="92"/>
       <c r="BB9" s="16"/>
       <c r="BC9" s="78"/>
       <c r="BD9" s="86" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="BE9" s="19"/>
       <c r="BF9" s="19"/>
     </row>
     <row r="10" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
+        <v>851</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>852</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>853</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>854</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>855</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="F10" s="22" t="s">
         <v>856</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="G10" s="18" t="s">
         <v>857</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>858</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>859</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>860</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>861</v>
       </c>
       <c r="H10" s="22">
         <v>1</v>
@@ -11314,10 +11344,10 @@
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="18" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
@@ -11326,35 +11356,35 @@
       </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="22" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="R10" s="22" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="S10" s="22" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="T10" s="59" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="U10" s="15" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="V10" s="18" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="W10" s="17" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="X10" s="20">
         <v>41408</v>
       </c>
       <c r="Y10" s="29" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="Z10" s="16"/>
       <c r="AA10" s="15" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="AB10" s="17">
         <v>2</v>
@@ -11362,24 +11392,24 @@
       <c r="AC10" s="16"/>
       <c r="AD10" s="61"/>
       <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
+      <c r="AF10" s="92"/>
       <c r="AG10" s="83" t="s">
+        <v>865</v>
+      </c>
+      <c r="AH10" s="26" t="s">
+        <v>866</v>
+      </c>
+      <c r="AI10" s="26" t="s">
+        <v>867</v>
+      </c>
+      <c r="AJ10" s="21" t="s">
+        <v>868</v>
+      </c>
+      <c r="AK10" s="21" t="s">
         <v>869</v>
       </c>
-      <c r="AH10" s="26" t="s">
+      <c r="AL10" s="16" t="s">
         <v>870</v>
-      </c>
-      <c r="AI10" s="26" t="s">
-        <v>871</v>
-      </c>
-      <c r="AJ10" s="21" t="s">
-        <v>872</v>
-      </c>
-      <c r="AK10" s="21" t="s">
-        <v>873</v>
-      </c>
-      <c r="AL10" s="16" t="s">
-        <v>874</v>
       </c>
       <c r="AM10" s="16"/>
       <c r="AN10" s="23"/>
@@ -11392,49 +11422,49 @@
       <c r="AQ10" s="40"/>
       <c r="AR10" s="25"/>
       <c r="AS10" s="23" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="AT10" s="23" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="AU10" s="40"/>
       <c r="AV10" s="16"/>
       <c r="AW10" s="16"/>
       <c r="AX10" s="16"/>
       <c r="AY10" s="15" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="AZ10" s="16"/>
-      <c r="BA10" s="16"/>
+      <c r="BA10" s="92"/>
       <c r="BB10" s="16"/>
       <c r="BC10" s="78"/>
       <c r="BD10" s="86" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="BE10" s="19"/>
       <c r="BF10" s="19"/>
     </row>
     <row r="11" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
+        <v>877</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>878</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>880</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>881</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="F11" s="22" t="s">
         <v>882</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="G11" s="18" t="s">
         <v>883</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>884</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>885</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>886</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>887</v>
       </c>
       <c r="H11" s="22">
         <v>1</v>
@@ -11444,10 +11474,10 @@
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="18" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
@@ -11456,35 +11486,35 @@
       </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="22" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="S11" s="22" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="T11" s="59" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="U11" s="15" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="V11" s="18" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="W11" s="15" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="X11" s="20">
         <v>41408</v>
       </c>
       <c r="Y11" s="29" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="Z11" s="16"/>
       <c r="AA11" s="15" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="AB11" s="17">
         <v>2</v>
@@ -11492,24 +11522,24 @@
       <c r="AC11" s="16"/>
       <c r="AD11" s="61"/>
       <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
+      <c r="AF11" s="92"/>
       <c r="AG11" s="21" t="s">
+        <v>891</v>
+      </c>
+      <c r="AH11" s="26" t="s">
+        <v>892</v>
+      </c>
+      <c r="AI11" s="26" t="s">
+        <v>893</v>
+      </c>
+      <c r="AJ11" s="21" t="s">
+        <v>894</v>
+      </c>
+      <c r="AK11" s="21" t="s">
         <v>895</v>
       </c>
-      <c r="AH11" s="26" t="s">
+      <c r="AL11" s="16" t="s">
         <v>896</v>
-      </c>
-      <c r="AI11" s="26" t="s">
-        <v>897</v>
-      </c>
-      <c r="AJ11" s="21" t="s">
-        <v>898</v>
-      </c>
-      <c r="AK11" s="21" t="s">
-        <v>899</v>
-      </c>
-      <c r="AL11" s="16" t="s">
-        <v>900</v>
       </c>
       <c r="AM11" s="16"/>
       <c r="AN11" s="23"/>
@@ -11522,49 +11552,49 @@
       <c r="AQ11" s="40"/>
       <c r="AR11" s="25"/>
       <c r="AS11" s="23" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="AT11" s="23" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="AU11" s="40"/>
       <c r="AV11" s="16"/>
       <c r="AW11" s="16"/>
       <c r="AX11" s="16"/>
       <c r="AY11" s="15" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="AZ11" s="16"/>
-      <c r="BA11" s="16"/>
+      <c r="BA11" s="92"/>
       <c r="BB11" s="16"/>
       <c r="BC11" s="78"/>
       <c r="BD11" s="86" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="BE11" s="19"/>
       <c r="BF11" s="19"/>
     </row>
     <row r="12" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
+        <v>903</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>905</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>906</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>907</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="F12" s="22" t="s">
         <v>908</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="G12" s="18" t="s">
         <v>909</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>910</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>911</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>912</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>913</v>
       </c>
       <c r="H12" s="22">
         <v>1</v>
@@ -11574,10 +11604,10 @@
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="18" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -11586,35 +11616,35 @@
       </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="22" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="R12" s="22" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="S12" s="22" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="T12" s="59" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="V12" s="18" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="X12" s="20">
         <v>41408</v>
       </c>
       <c r="Y12" s="29" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="Z12" s="16"/>
       <c r="AA12" s="15" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="AB12" s="17">
         <v>2</v>
@@ -11622,24 +11652,24 @@
       <c r="AC12" s="16"/>
       <c r="AD12" s="61"/>
       <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
+      <c r="AF12" s="92"/>
       <c r="AG12" s="21" t="s">
+        <v>917</v>
+      </c>
+      <c r="AH12" s="26" t="s">
+        <v>918</v>
+      </c>
+      <c r="AI12" s="26" t="s">
+        <v>919</v>
+      </c>
+      <c r="AJ12" s="21" t="s">
+        <v>920</v>
+      </c>
+      <c r="AK12" s="21" t="s">
         <v>921</v>
       </c>
-      <c r="AH12" s="26" t="s">
+      <c r="AL12" s="16" t="s">
         <v>922</v>
-      </c>
-      <c r="AI12" s="26" t="s">
-        <v>923</v>
-      </c>
-      <c r="AJ12" s="21" t="s">
-        <v>924</v>
-      </c>
-      <c r="AK12" s="21" t="s">
-        <v>925</v>
-      </c>
-      <c r="AL12" s="16" t="s">
-        <v>926</v>
       </c>
       <c r="AM12" s="16"/>
       <c r="AN12" s="23"/>
@@ -11652,49 +11682,49 @@
       <c r="AQ12" s="40"/>
       <c r="AR12" s="25"/>
       <c r="AS12" s="23" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="AT12" s="23" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="AU12" s="40"/>
       <c r="AV12" s="16"/>
       <c r="AW12" s="16"/>
       <c r="AX12" s="16"/>
       <c r="AY12" s="15" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="AZ12" s="16"/>
-      <c r="BA12" s="16"/>
+      <c r="BA12" s="92"/>
       <c r="BB12" s="16"/>
       <c r="BC12" s="78"/>
       <c r="BD12" s="86" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="BE12" s="19"/>
       <c r="BF12" s="19"/>
     </row>
     <row r="13" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
+        <v>929</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>930</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>931</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>932</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="F13" s="22" t="s">
         <v>934</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="G13" s="18" t="s">
         <v>935</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>936</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>937</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>938</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>939</v>
       </c>
       <c r="H13" s="22">
         <v>1</v>
@@ -11704,10 +11734,10 @@
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="18" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
@@ -11716,35 +11746,35 @@
       </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="22" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="R13" s="22" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="S13" s="22" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="T13" s="59" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="U13" s="15" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="V13" s="18" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="W13" s="15" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="X13" s="20">
         <v>41408</v>
       </c>
       <c r="Y13" s="29" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="Z13" s="16"/>
       <c r="AA13" s="15" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="AB13" s="17">
         <v>2</v>
@@ -11752,24 +11782,24 @@
       <c r="AC13" s="16"/>
       <c r="AD13" s="61"/>
       <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
+      <c r="AF13" s="92"/>
       <c r="AG13" s="21" t="s">
+        <v>943</v>
+      </c>
+      <c r="AH13" s="26" t="s">
+        <v>944</v>
+      </c>
+      <c r="AI13" s="26" t="s">
+        <v>945</v>
+      </c>
+      <c r="AJ13" s="21" t="s">
+        <v>946</v>
+      </c>
+      <c r="AK13" s="21" t="s">
         <v>947</v>
       </c>
-      <c r="AH13" s="26" t="s">
+      <c r="AL13" s="16" t="s">
         <v>948</v>
-      </c>
-      <c r="AI13" s="26" t="s">
-        <v>949</v>
-      </c>
-      <c r="AJ13" s="21" t="s">
-        <v>950</v>
-      </c>
-      <c r="AK13" s="21" t="s">
-        <v>951</v>
-      </c>
-      <c r="AL13" s="16" t="s">
-        <v>952</v>
       </c>
       <c r="AM13" s="16"/>
       <c r="AN13" s="23"/>
@@ -11782,49 +11812,49 @@
       <c r="AQ13" s="40"/>
       <c r="AR13" s="25"/>
       <c r="AS13" s="23" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="AT13" s="23" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="AU13" s="40"/>
       <c r="AV13" s="16"/>
       <c r="AW13" s="16"/>
       <c r="AX13" s="16"/>
       <c r="AY13" s="15" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="AZ13" s="16"/>
-      <c r="BA13" s="16"/>
+      <c r="BA13" s="92"/>
       <c r="BB13" s="16"/>
       <c r="BC13" s="78"/>
       <c r="BD13" s="86" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="BE13" s="19"/>
       <c r="BF13" s="19"/>
     </row>
     <row r="14" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
+        <v>955</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>956</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>957</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>958</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>959</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="F14" s="22" t="s">
         <v>960</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="G14" s="18" t="s">
         <v>961</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>962</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>963</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>964</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>965</v>
       </c>
       <c r="H14" s="22">
         <v>1</v>
@@ -11834,10 +11864,10 @@
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="18" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
@@ -11846,35 +11876,35 @@
       </c>
       <c r="P14" s="18"/>
       <c r="Q14" s="22" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="R14" s="22" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="S14" s="22" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="T14" s="59" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="U14" s="15" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="V14" s="18" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="X14" s="20">
         <v>41408</v>
       </c>
       <c r="Y14" s="29" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="Z14" s="16"/>
       <c r="AA14" s="15" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="AB14" s="17">
         <v>2</v>
@@ -11882,24 +11912,24 @@
       <c r="AC14" s="16"/>
       <c r="AD14" s="21"/>
       <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
+      <c r="AF14" s="92"/>
       <c r="AG14" s="21" t="s">
+        <v>969</v>
+      </c>
+      <c r="AH14" s="26" t="s">
+        <v>970</v>
+      </c>
+      <c r="AI14" s="26" t="s">
+        <v>971</v>
+      </c>
+      <c r="AJ14" s="21" t="s">
+        <v>972</v>
+      </c>
+      <c r="AK14" s="21" t="s">
         <v>973</v>
       </c>
-      <c r="AH14" s="26" t="s">
+      <c r="AL14" s="16" t="s">
         <v>974</v>
-      </c>
-      <c r="AI14" s="26" t="s">
-        <v>975</v>
-      </c>
-      <c r="AJ14" s="21" t="s">
-        <v>976</v>
-      </c>
-      <c r="AK14" s="21" t="s">
-        <v>977</v>
-      </c>
-      <c r="AL14" s="16" t="s">
-        <v>978</v>
       </c>
       <c r="AM14" s="16"/>
       <c r="AN14" s="23"/>
@@ -11912,49 +11942,49 @@
       <c r="AQ14" s="40"/>
       <c r="AR14" s="25"/>
       <c r="AS14" s="23" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="AT14" s="23" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="AU14" s="40"/>
       <c r="AV14" s="16"/>
       <c r="AW14" s="16"/>
       <c r="AX14" s="16"/>
       <c r="AY14" s="15" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="AZ14" s="16"/>
-      <c r="BA14" s="16"/>
+      <c r="BA14" s="92"/>
       <c r="BB14" s="16"/>
       <c r="BC14" s="78"/>
       <c r="BD14" s="86" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="BE14" s="19"/>
       <c r="BF14" s="19"/>
     </row>
     <row r="15" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
+        <v>981</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>982</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>983</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>984</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>985</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="F15" s="22" t="s">
         <v>986</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="G15" s="18" t="s">
         <v>987</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>988</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>989</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>990</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>991</v>
       </c>
       <c r="H15" s="22">
         <v>1</v>
@@ -11964,10 +11994,10 @@
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="18" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
@@ -11976,35 +12006,35 @@
       </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="22" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="R15" s="22" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="S15" s="22" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="T15" s="59" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="U15" s="15" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="V15" s="18" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="W15" s="15" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="X15" s="20">
         <v>41408</v>
       </c>
       <c r="Y15" s="29" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="Z15" s="16"/>
       <c r="AA15" s="15" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="AB15" s="17">
         <v>2</v>
@@ -12012,24 +12042,24 @@
       <c r="AC15" s="16"/>
       <c r="AD15" s="21"/>
       <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
+      <c r="AF15" s="92"/>
       <c r="AG15" s="21" t="s">
+        <v>995</v>
+      </c>
+      <c r="AH15" s="26" t="s">
+        <v>996</v>
+      </c>
+      <c r="AI15" s="26" t="s">
+        <v>997</v>
+      </c>
+      <c r="AJ15" s="21" t="s">
+        <v>998</v>
+      </c>
+      <c r="AK15" s="21" t="s">
         <v>999</v>
       </c>
-      <c r="AH15" s="26" t="s">
+      <c r="AL15" s="16" t="s">
         <v>1000</v>
-      </c>
-      <c r="AI15" s="26" t="s">
-        <v>1001</v>
-      </c>
-      <c r="AJ15" s="21" t="s">
-        <v>1002</v>
-      </c>
-      <c r="AK15" s="21" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AL15" s="16" t="s">
-        <v>1004</v>
       </c>
       <c r="AM15" s="16"/>
       <c r="AN15" s="23"/>
@@ -12042,49 +12072,49 @@
       <c r="AQ15" s="40"/>
       <c r="AR15" s="25"/>
       <c r="AS15" s="23" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="AT15" s="23" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="AU15" s="40"/>
       <c r="AV15" s="18"/>
       <c r="AW15" s="18"/>
       <c r="AX15" s="18"/>
       <c r="AY15" s="15" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="AZ15" s="16"/>
-      <c r="BA15" s="16"/>
+      <c r="BA15" s="92"/>
       <c r="BB15" s="16"/>
       <c r="BC15" s="78"/>
       <c r="BD15" s="86" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="BE15" s="19"/>
       <c r="BF15" s="19"/>
     </row>
     <row r="16" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>1011</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="F16" s="22" t="s">
         <v>1012</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="G16" s="18" t="s">
         <v>1013</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>1017</v>
       </c>
       <c r="H16" s="22">
         <v>1</v>
@@ -12094,10 +12124,10 @@
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="18" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
@@ -12106,35 +12136,35 @@
       </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="22" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="R16" s="22" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="S16" s="22" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="T16" s="59" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="V16" s="18" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="X16" s="20">
         <v>41408</v>
       </c>
       <c r="Y16" s="29" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="Z16" s="16"/>
       <c r="AA16" s="15" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="AB16" s="17">
         <v>2</v>
@@ -12142,24 +12172,24 @@
       <c r="AC16" s="16"/>
       <c r="AD16" s="21"/>
       <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
+      <c r="AF16" s="92"/>
       <c r="AG16" s="21" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AH16" s="26" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AI16" s="26" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AJ16" s="21" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AK16" s="21" t="s">
         <v>1025</v>
       </c>
-      <c r="AH16" s="26" t="s">
+      <c r="AL16" s="16" t="s">
         <v>1026</v>
-      </c>
-      <c r="AI16" s="26" t="s">
-        <v>1027</v>
-      </c>
-      <c r="AJ16" s="21" t="s">
-        <v>1028</v>
-      </c>
-      <c r="AK16" s="21" t="s">
-        <v>1029</v>
-      </c>
-      <c r="AL16" s="16" t="s">
-        <v>1030</v>
       </c>
       <c r="AM16" s="16"/>
       <c r="AN16" s="23"/>
@@ -12172,49 +12202,49 @@
       <c r="AQ16" s="40"/>
       <c r="AR16" s="25"/>
       <c r="AS16" s="23" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="AT16" s="23" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="AU16" s="40"/>
       <c r="AV16" s="18"/>
       <c r="AW16" s="18"/>
       <c r="AX16" s="18"/>
       <c r="AY16" s="15" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="AZ16" s="16"/>
-      <c r="BA16" s="16"/>
+      <c r="BA16" s="92"/>
       <c r="BB16" s="16"/>
       <c r="BC16" s="78"/>
       <c r="BD16" s="86" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="BE16" s="19"/>
       <c r="BF16" s="19"/>
     </row>
     <row r="17" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>1037</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="F17" s="22" t="s">
         <v>1038</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="G17" s="18" t="s">
         <v>1039</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>1043</v>
       </c>
       <c r="H17" s="22">
         <v>1</v>
@@ -12224,10 +12254,10 @@
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="18" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
@@ -12236,35 +12266,35 @@
       </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="22" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="R17" s="22" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="S17" s="22" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="T17" s="59" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="U17" s="15" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="V17" s="18" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="W17" s="15" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="X17" s="20">
         <v>41408</v>
       </c>
       <c r="Y17" s="29" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="Z17" s="16"/>
       <c r="AA17" s="15" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="AB17" s="17">
         <v>2</v>
@@ -12272,24 +12302,24 @@
       <c r="AC17" s="16"/>
       <c r="AD17" s="21"/>
       <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
+      <c r="AF17" s="92"/>
       <c r="AG17" s="21" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AH17" s="26" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AI17" s="26" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AJ17" s="21" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AK17" s="21" t="s">
         <v>1051</v>
       </c>
-      <c r="AH17" s="26" t="s">
+      <c r="AL17" s="16" t="s">
         <v>1052</v>
-      </c>
-      <c r="AI17" s="26" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AJ17" s="21" t="s">
-        <v>1054</v>
-      </c>
-      <c r="AK17" s="21" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AL17" s="16" t="s">
-        <v>1056</v>
       </c>
       <c r="AM17" s="16"/>
       <c r="AN17" s="25"/>
@@ -12302,49 +12332,49 @@
       <c r="AQ17" s="40"/>
       <c r="AR17" s="25"/>
       <c r="AS17" s="23" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="AT17" s="23" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="AU17" s="40"/>
       <c r="AV17" s="18"/>
       <c r="AW17" s="18"/>
       <c r="AX17" s="18"/>
       <c r="AY17" s="15" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="AZ17" s="16"/>
-      <c r="BA17" s="16"/>
+      <c r="BA17" s="92"/>
       <c r="BB17" s="16"/>
       <c r="BC17" s="78"/>
       <c r="BD17" s="86" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="BE17" s="19"/>
       <c r="BF17" s="19"/>
     </row>
     <row r="18" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>1063</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="F18" s="22" t="s">
         <v>1064</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="G18" s="18" t="s">
         <v>1065</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>1069</v>
       </c>
       <c r="H18" s="22">
         <v>1</v>
@@ -12354,10 +12384,10 @@
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="18" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
@@ -12366,35 +12396,35 @@
       </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="22" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="R18" s="22" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="S18" s="22" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="T18" s="59" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="U18" s="15" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="V18" s="18" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="W18" s="17" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="X18" s="20">
         <v>41408</v>
       </c>
       <c r="Y18" s="29" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="Z18" s="16"/>
       <c r="AA18" s="15" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="AB18" s="17">
         <v>2</v>
@@ -12402,24 +12432,24 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="21"/>
       <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
+      <c r="AF18" s="92"/>
       <c r="AG18" s="21" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AH18" s="26" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AI18" s="26" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AJ18" s="21" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AK18" s="21" t="s">
         <v>1077</v>
       </c>
-      <c r="AH18" s="26" t="s">
+      <c r="AL18" s="16" t="s">
         <v>1078</v>
-      </c>
-      <c r="AI18" s="26" t="s">
-        <v>1079</v>
-      </c>
-      <c r="AJ18" s="21" t="s">
-        <v>1080</v>
-      </c>
-      <c r="AK18" s="21" t="s">
-        <v>1081</v>
-      </c>
-      <c r="AL18" s="16" t="s">
-        <v>1082</v>
       </c>
       <c r="AM18" s="16"/>
       <c r="AN18" s="25"/>
@@ -12432,49 +12462,49 @@
       <c r="AQ18" s="40"/>
       <c r="AR18" s="25"/>
       <c r="AS18" s="23" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="AT18" s="23" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="AU18" s="40"/>
       <c r="AV18" s="18"/>
       <c r="AW18" s="18"/>
       <c r="AX18" s="18"/>
       <c r="AY18" s="15" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="AZ18" s="16"/>
-      <c r="BA18" s="16"/>
+      <c r="BA18" s="92"/>
       <c r="BB18" s="16"/>
       <c r="BC18" s="78"/>
       <c r="BD18" s="86" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="BE18" s="19"/>
       <c r="BF18" s="19"/>
     </row>
     <row r="19" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>1089</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="F19" s="22" t="s">
         <v>1090</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="G19" s="18" t="s">
         <v>1091</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>1094</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>1095</v>
       </c>
       <c r="H19" s="22">
         <v>1</v>
@@ -12484,10 +12514,10 @@
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="18" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
@@ -12496,35 +12526,35 @@
       </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="22" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="R19" s="22" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="S19" s="22" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="T19" s="59" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="V19" s="18" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="W19" s="15" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="X19" s="20">
         <v>41408</v>
       </c>
       <c r="Y19" s="29" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="Z19" s="16"/>
       <c r="AA19" s="15" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="AB19" s="17">
         <v>2</v>
@@ -12532,24 +12562,24 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="21"/>
       <c r="AE19" s="16"/>
-      <c r="AF19" s="16"/>
+      <c r="AF19" s="92"/>
       <c r="AG19" s="21" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AH19" s="26" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AI19" s="26" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AJ19" s="21" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AK19" s="21" t="s">
         <v>1103</v>
       </c>
-      <c r="AH19" s="26" t="s">
+      <c r="AL19" s="16" t="s">
         <v>1104</v>
-      </c>
-      <c r="AI19" s="26" t="s">
-        <v>1105</v>
-      </c>
-      <c r="AJ19" s="21" t="s">
-        <v>1106</v>
-      </c>
-      <c r="AK19" s="21" t="s">
-        <v>1107</v>
-      </c>
-      <c r="AL19" s="16" t="s">
-        <v>1108</v>
       </c>
       <c r="AM19" s="16"/>
       <c r="AN19" s="25"/>
@@ -12562,49 +12592,49 @@
       <c r="AQ19" s="40"/>
       <c r="AR19" s="25"/>
       <c r="AS19" s="23" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="AT19" s="23" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="AU19" s="40"/>
       <c r="AV19" s="18"/>
       <c r="AW19" s="18"/>
       <c r="AX19" s="18"/>
       <c r="AY19" s="15" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="AZ19" s="16"/>
-      <c r="BA19" s="16"/>
+      <c r="BA19" s="92"/>
       <c r="BB19" s="16"/>
       <c r="BC19" s="78"/>
       <c r="BD19" s="86" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="BE19" s="19"/>
       <c r="BF19" s="19"/>
     </row>
     <row r="20" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>1115</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="F20" s="22" t="s">
         <v>1116</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="G20" s="18" t="s">
         <v>1117</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>1121</v>
       </c>
       <c r="H20" s="22">
         <v>1</v>
@@ -12614,10 +12644,10 @@
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="18" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
@@ -12626,35 +12656,35 @@
       </c>
       <c r="P20" s="18"/>
       <c r="Q20" s="22" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="R20" s="22" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="S20" s="22" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="T20" s="59" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="V20" s="18" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="W20" s="17" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="X20" s="20">
         <v>41408</v>
       </c>
       <c r="Y20" s="29" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="Z20" s="16"/>
       <c r="AA20" s="15" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="AB20" s="17">
         <v>2</v>
@@ -12662,24 +12692,24 @@
       <c r="AC20" s="16"/>
       <c r="AD20" s="21"/>
       <c r="AE20" s="16"/>
-      <c r="AF20" s="16"/>
+      <c r="AF20" s="92"/>
       <c r="AG20" s="21" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AH20" s="26" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AI20" s="26" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AJ20" s="21" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AK20" s="21" t="s">
         <v>1129</v>
       </c>
-      <c r="AH20" s="26" t="s">
+      <c r="AL20" s="16" t="s">
         <v>1130</v>
-      </c>
-      <c r="AI20" s="26" t="s">
-        <v>1131</v>
-      </c>
-      <c r="AJ20" s="21" t="s">
-        <v>1132</v>
-      </c>
-      <c r="AK20" s="21" t="s">
-        <v>1133</v>
-      </c>
-      <c r="AL20" s="16" t="s">
-        <v>1134</v>
       </c>
       <c r="AM20" s="16"/>
       <c r="AN20" s="25"/>
@@ -12692,49 +12722,49 @@
       <c r="AQ20" s="40"/>
       <c r="AR20" s="25"/>
       <c r="AS20" s="23" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="AT20" s="23" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="AU20" s="40"/>
       <c r="AV20" s="18"/>
       <c r="AW20" s="18"/>
       <c r="AX20" s="18"/>
       <c r="AY20" s="15" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="AZ20" s="16"/>
-      <c r="BA20" s="16"/>
+      <c r="BA20" s="92"/>
       <c r="BB20" s="16"/>
       <c r="BC20" s="78"/>
       <c r="BD20" s="86" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="BE20" s="19"/>
       <c r="BF20" s="19"/>
     </row>
     <row r="21" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>1141</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="F21" s="22" t="s">
         <v>1142</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="G21" s="18" t="s">
         <v>1143</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>1145</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>1146</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>1147</v>
       </c>
       <c r="H21" s="22">
         <v>1</v>
@@ -12744,10 +12774,10 @@
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="18" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
@@ -12756,35 +12786,35 @@
       </c>
       <c r="P21" s="18"/>
       <c r="Q21" s="22" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="R21" s="22" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="S21" s="22" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="T21" s="59" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="W21" s="15" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="X21" s="20">
         <v>41408</v>
       </c>
       <c r="Y21" s="29" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="Z21" s="16"/>
       <c r="AA21" s="15" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="AB21" s="17">
         <v>2</v>
@@ -12792,24 +12822,24 @@
       <c r="AC21" s="16"/>
       <c r="AD21" s="21"/>
       <c r="AE21" s="16"/>
-      <c r="AF21" s="16"/>
+      <c r="AF21" s="92"/>
       <c r="AG21" s="21" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AH21" s="26" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AI21" s="26" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AJ21" s="21" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AK21" s="21" t="s">
         <v>1155</v>
       </c>
-      <c r="AH21" s="26" t="s">
+      <c r="AL21" s="16" t="s">
         <v>1156</v>
-      </c>
-      <c r="AI21" s="26" t="s">
-        <v>1157</v>
-      </c>
-      <c r="AJ21" s="21" t="s">
-        <v>1158</v>
-      </c>
-      <c r="AK21" s="21" t="s">
-        <v>1159</v>
-      </c>
-      <c r="AL21" s="16" t="s">
-        <v>1160</v>
       </c>
       <c r="AM21" s="16"/>
       <c r="AN21" s="25"/>
@@ -12822,49 +12852,49 @@
       <c r="AQ21" s="40"/>
       <c r="AR21" s="25"/>
       <c r="AS21" s="23" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="AT21" s="23" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="AU21" s="40"/>
       <c r="AV21" s="18"/>
       <c r="AW21" s="18"/>
       <c r="AX21" s="18"/>
       <c r="AY21" s="15" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="AZ21" s="16"/>
-      <c r="BA21" s="16"/>
+      <c r="BA21" s="92"/>
       <c r="BB21" s="16"/>
       <c r="BC21" s="78"/>
       <c r="BD21" s="86" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="BE21" s="19"/>
       <c r="BF21" s="19"/>
     </row>
     <row r="22" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>1167</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="F22" s="22" t="s">
         <v>1168</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="G22" s="18" t="s">
         <v>1169</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>1170</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>1171</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>1172</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>1173</v>
       </c>
       <c r="H22" s="22">
         <v>1</v>
@@ -12874,10 +12904,10 @@
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="18" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
@@ -12886,35 +12916,35 @@
       </c>
       <c r="P22" s="18"/>
       <c r="Q22" s="22" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="R22" s="22" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="S22" s="22" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="T22" s="59" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="U22" s="15" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="V22" s="18" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="W22" s="17" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="X22" s="20">
         <v>41408</v>
       </c>
       <c r="Y22" s="29" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="Z22" s="16"/>
       <c r="AA22" s="15" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="AB22" s="17">
         <v>2</v>
@@ -12922,24 +12952,24 @@
       <c r="AC22" s="16"/>
       <c r="AD22" s="21"/>
       <c r="AE22" s="16"/>
-      <c r="AF22" s="16"/>
+      <c r="AF22" s="92"/>
       <c r="AG22" s="21" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AH22" s="26" t="s">
+        <v>1178</v>
+      </c>
+      <c r="AI22" s="26" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AJ22" s="21" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AK22" s="21" t="s">
         <v>1181</v>
       </c>
-      <c r="AH22" s="26" t="s">
+      <c r="AL22" s="16" t="s">
         <v>1182</v>
-      </c>
-      <c r="AI22" s="26" t="s">
-        <v>1183</v>
-      </c>
-      <c r="AJ22" s="21" t="s">
-        <v>1184</v>
-      </c>
-      <c r="AK22" s="21" t="s">
-        <v>1185</v>
-      </c>
-      <c r="AL22" s="16" t="s">
-        <v>1186</v>
       </c>
       <c r="AM22" s="16"/>
       <c r="AN22" s="25"/>
@@ -12952,49 +12982,49 @@
       <c r="AQ22" s="40"/>
       <c r="AR22" s="25"/>
       <c r="AS22" s="23" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="AT22" s="23" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="AU22" s="40"/>
       <c r="AV22" s="18"/>
       <c r="AW22" s="18"/>
       <c r="AX22" s="18"/>
       <c r="AY22" s="15" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="AZ22" s="16"/>
-      <c r="BA22" s="16"/>
+      <c r="BA22" s="92"/>
       <c r="BB22" s="16"/>
       <c r="BC22" s="78"/>
       <c r="BD22" s="86" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="BE22" s="19"/>
       <c r="BF22" s="19"/>
     </row>
     <row r="23" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>1193</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="F23" s="22" t="s">
         <v>1194</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="G23" s="18" t="s">
         <v>1195</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>1197</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>1199</v>
       </c>
       <c r="H23" s="22">
         <v>1</v>
@@ -13004,10 +13034,10 @@
       </c>
       <c r="J23" s="19"/>
       <c r="K23" s="18" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
@@ -13016,35 +13046,35 @@
       </c>
       <c r="P23" s="18"/>
       <c r="Q23" s="22" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="R23" s="22" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="S23" s="22" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="T23" s="59" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="U23" s="15" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="V23" s="18" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="W23" s="15" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="X23" s="20">
         <v>41408</v>
       </c>
       <c r="Y23" s="29" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="Z23" s="16"/>
       <c r="AA23" s="15" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="AB23" s="17">
         <v>2</v>
@@ -13052,24 +13082,24 @@
       <c r="AC23" s="16"/>
       <c r="AD23" s="21"/>
       <c r="AE23" s="16"/>
-      <c r="AF23" s="16"/>
+      <c r="AF23" s="92"/>
       <c r="AG23" s="21" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AH23" s="26" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AI23" s="26" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AJ23" s="21" t="s">
+        <v>1206</v>
+      </c>
+      <c r="AK23" s="21" t="s">
         <v>1207</v>
       </c>
-      <c r="AH23" s="26" t="s">
+      <c r="AL23" s="18" t="s">
         <v>1208</v>
-      </c>
-      <c r="AI23" s="26" t="s">
-        <v>1209</v>
-      </c>
-      <c r="AJ23" s="21" t="s">
-        <v>1210</v>
-      </c>
-      <c r="AK23" s="21" t="s">
-        <v>1211</v>
-      </c>
-      <c r="AL23" s="18" t="s">
-        <v>1212</v>
       </c>
       <c r="AM23" s="16"/>
       <c r="AN23" s="25"/>
@@ -13082,49 +13112,49 @@
       <c r="AQ23" s="40"/>
       <c r="AR23" s="25"/>
       <c r="AS23" s="23" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="AT23" s="23" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="AU23" s="40"/>
       <c r="AV23" s="16"/>
       <c r="AW23" s="16"/>
       <c r="AX23" s="16"/>
       <c r="AY23" s="15" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="AZ23" s="16"/>
-      <c r="BA23" s="16"/>
+      <c r="BA23" s="92"/>
       <c r="BB23" s="16"/>
       <c r="BC23" s="78"/>
       <c r="BD23" s="86" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="BE23" s="19"/>
       <c r="BF23" s="19"/>
     </row>
     <row r="24" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>1219</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="G24" s="18" t="s">
         <v>1220</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>1282</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>1223</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>1224</v>
       </c>
       <c r="H24" s="22">
         <v>1</v>
@@ -13134,10 +13164,10 @@
       </c>
       <c r="J24" s="19"/>
       <c r="K24" s="18" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
@@ -13146,35 +13176,35 @@
       </c>
       <c r="P24" s="18"/>
       <c r="Q24" s="22" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="R24" s="22" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="S24" s="22" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="T24" s="59" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="U24" s="15" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="V24" s="18" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="W24" s="17" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="X24" s="20">
         <v>41408</v>
       </c>
       <c r="Y24" s="29" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="Z24" s="16"/>
       <c r="AA24" s="15" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="AB24" s="17">
         <v>2</v>
@@ -13182,24 +13212,24 @@
       <c r="AC24" s="16"/>
       <c r="AD24" s="21"/>
       <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
+      <c r="AF24" s="92"/>
       <c r="AG24" s="21" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AH24" s="26" t="s">
+        <v>1229</v>
+      </c>
+      <c r="AI24" s="26" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AJ24" s="21" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AK24" s="21" t="s">
         <v>1232</v>
       </c>
-      <c r="AH24" s="26" t="s">
+      <c r="AL24" s="18" t="s">
         <v>1233</v>
-      </c>
-      <c r="AI24" s="26" t="s">
-        <v>1234</v>
-      </c>
-      <c r="AJ24" s="21" t="s">
-        <v>1235</v>
-      </c>
-      <c r="AK24" s="21" t="s">
-        <v>1236</v>
-      </c>
-      <c r="AL24" s="18" t="s">
-        <v>1237</v>
       </c>
       <c r="AM24" s="16"/>
       <c r="AN24" s="25"/>
@@ -13212,24 +13242,24 @@
       <c r="AQ24" s="40"/>
       <c r="AR24" s="25"/>
       <c r="AS24" s="23" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="AT24" s="23" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="AU24" s="40"/>
       <c r="AV24" s="16"/>
       <c r="AW24" s="16"/>
       <c r="AX24" s="16"/>
       <c r="AY24" s="15" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="AZ24" s="16"/>
-      <c r="BA24" s="16"/>
+      <c r="BA24" s="92"/>
       <c r="BB24" s="16"/>
       <c r="BC24" s="78"/>
       <c r="BD24" s="86" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="BE24" s="19"/>
       <c r="BF24" s="19"/>

--- a/test/test06.xlsx
+++ b/test/test06.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26505"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="4140" windowWidth="30440" windowHeight="16800" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="16760" yWindow="860" windowWidth="30440" windowHeight="16800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Movies" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="1319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="1320">
   <si>
     <t>AvailTrans</t>
   </si>
@@ -4200,6 +4203,9 @@
   </si>
   <si>
     <t>10% discount if ordered more than one</t>
+  </si>
+  <si>
+    <t>L,S,V</t>
   </si>
 </sst>
 </file>
@@ -5387,7 +5393,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5670,6 +5676,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="353">
@@ -6422,9 +6431,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ45"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomLeft" activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7110,7 +7119,9 @@
       <c r="AG5" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="AH5" s="38"/>
+      <c r="AH5" s="95" t="s">
+        <v>1319</v>
+      </c>
       <c r="AI5" s="16"/>
       <c r="AJ5" s="16"/>
       <c r="AK5" s="34" t="s">
@@ -9949,7 +9960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+    <sheetView topLeftCell="AS1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="BA3" sqref="BA3:BA24"/>
     </sheetView>
